--- a/已完成文档/07-开发计划.xlsx
+++ b/已完成文档/07-开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\donruan\neusoft-java\已完成文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1219A7FC-6083-42E8-91ED-9823B81D293D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2899A3B-BB88-4368-BA1C-ED9BE477E9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="447" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="447" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="19" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="172">
   <si>
     <t xml:space="preserve">东软秘密 </t>
   </si>
@@ -316,37 +316,6 @@
     <t>项目负责人</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="Frutiger LT 55 Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="56"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名字</t>
-    </r>
-  </si>
-  <si>
     <t>评审负责人</t>
   </si>
   <si>
@@ -354,9 +323,6 @@
   </si>
   <si>
     <t>测试负责人</t>
-  </si>
-  <si>
-    <t>填写TL名字</t>
   </si>
   <si>
     <t>数据库管理员</t>
@@ -815,35 +781,47 @@
   </si>
   <si>
     <t>编写项目需求文档</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>构思项目逻辑，需求文档进一步完善</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>编写后端代码，数据库设计阶段</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>刘竞文</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>全部由自己完成</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>java vue mysql</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>springBoot、vue</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>测试程序</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>5天</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘竞文 负责全部工作</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -857,7 +835,7 @@
     <numFmt numFmtId="179" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="47">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -947,12 +925,6 @@
     <font>
       <i/>
       <sz val="10"/>
-      <name val="Frutiger LT 55 Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="56"/>
       <name val="Frutiger LT 55 Roman"/>
       <family val="1"/>
     </font>
@@ -1469,42 +1441,42 @@
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="15" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="15" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1627,338 +1599,338 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1967,14 +1939,11 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9299,7 +9268,7 @@
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="F34:H34"/>
   </mergeCells>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -9310,7 +9279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
@@ -9587,7 +9556,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -9597,8 +9566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -9613,394 +9582,420 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34.5" customHeight="1">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="102"/>
+      <c r="H4" s="148"/>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99" t="s">
+      <c r="C5" s="141"/>
+      <c r="D5" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="100"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="102"/>
+    </row>
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="100"/>
-    </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="97" t="s">
+      <c r="C6" s="141"/>
+      <c r="D6" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="102"/>
+      <c r="F6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="37" t="s">
+      <c r="G6" s="145"/>
+      <c r="H6" s="143"/>
+    </row>
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="105"/>
-    </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="97" t="s">
+      <c r="C7" s="141"/>
+      <c r="D7" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="102"/>
+      <c r="F7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99" t="s">
+      <c r="G7" s="142"/>
+      <c r="H7" s="143"/>
+    </row>
+    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="37" t="s">
+      <c r="C8" s="141"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="106"/>
-      <c r="H7" s="105"/>
-    </row>
-    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="97" t="s">
+      <c r="G8" s="144"/>
+      <c r="H8" s="102"/>
+    </row>
+    <row r="9" spans="2:8" ht="48" customHeight="1">
+      <c r="B9" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="37" t="s">
+      <c r="C9" s="129"/>
+      <c r="D9" s="131" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="133"/>
+    </row>
+    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="100"/>
-    </row>
-    <row r="9" spans="2:8" ht="48" customHeight="1">
-      <c r="B9" s="108" t="s">
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
+    </row>
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="112"/>
-    </row>
-    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="108" t="s">
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="136"/>
+    </row>
+    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="139"/>
+    </row>
+    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="139"/>
+    </row>
+    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="139"/>
+    </row>
+    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="139"/>
+    </row>
+    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="113"/>
-    </row>
-    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="117" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="95"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="119"/>
-    </row>
-    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-    </row>
-    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="120"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-    </row>
-    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-    </row>
-    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-    </row>
-    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="94" t="s">
+      <c r="C17" s="119"/>
+      <c r="D17" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
-    </row>
-    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="114" t="s">
+      <c r="E17" s="102"/>
+      <c r="F17" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="99" t="s">
+      <c r="G17" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="102"/>
+    </row>
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="28" t="s">
+      <c r="C18" s="119"/>
+      <c r="D18" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="102"/>
+      <c r="F18" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="116" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="100"/>
-    </row>
-    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="114" t="s">
+      <c r="G18" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="28" t="s">
+      <c r="H18" s="102"/>
+    </row>
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="100"/>
-    </row>
-    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="113"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="130"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="E20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="F20" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="G20" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="H20" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="31">
+        <v>44753</v>
+      </c>
+      <c r="D21" s="31">
+        <v>44754</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="33" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>54</v>
       </c>
       <c r="H21" s="38"/>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="31">
+        <v>44755</v>
+      </c>
+      <c r="D22" s="31">
+        <v>44755</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="33" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>57</v>
       </c>
       <c r="H22" s="33"/>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="31">
+        <v>44755</v>
+      </c>
+      <c r="D23" s="31">
+        <v>44755</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="33" t="s">
+      <c r="H23" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="31">
+        <v>44756</v>
+      </c>
+      <c r="D24" s="31">
+        <v>44761</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>64</v>
       </c>
       <c r="H24" s="38"/>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H26" s="33"/>
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="96"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="95"/>
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="E29" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="F29" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="G29" s="124"/>
+      <c r="H29" s="30" t="s">
         <v>78</v>
-      </c>
-      <c r="F29" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="123"/>
-      <c r="H29" s="30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="31">
         <v>44654</v>
@@ -10011,15 +10006,15 @@
       <c r="E30" s="34">
         <v>0</v>
       </c>
-      <c r="F30" s="124" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="125"/>
+      <c r="F30" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="126"/>
       <c r="H30" s="38"/>
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -10030,125 +10025,125 @@
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="127"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="123"/>
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="129"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="121"/>
       <c r="H33" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="127"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="123"/>
       <c r="H34" s="38"/>
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="129"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="121"/>
       <c r="H35" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="127"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="123"/>
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="127"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="123"/>
       <c r="H37" s="38"/>
     </row>
     <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="127"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="123"/>
       <c r="H38" s="38"/>
     </row>
     <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="96"/>
+      <c r="B39" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="95"/>
     </row>
     <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="G40" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="H40" s="30" t="s">
         <v>78</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -10158,7 +10153,7 @@
     </row>
     <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
@@ -10169,7 +10164,7 @@
     </row>
     <row r="43" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -10177,12 +10172,12 @@
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -10193,7 +10188,7 @@
     </row>
     <row r="45" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
@@ -10201,12 +10196,12 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
       <c r="H45" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -10217,7 +10212,7 @@
     </row>
     <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -10227,195 +10222,176 @@
       <c r="H47" s="38"/>
     </row>
     <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="94" t="s">
+      <c r="B48" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="95"/>
+    </row>
+    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="96"/>
-    </row>
-    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="114" t="s">
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="119"/>
+    </row>
+    <row r="50" spans="2:8" ht="25.2" customHeight="1">
+      <c r="B50" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="130"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="114" t="s">
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="115"/>
-    </row>
-    <row r="50" spans="2:8" ht="25.2" customHeight="1">
-      <c r="B50" s="131" t="s">
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+    </row>
+    <row r="51" spans="2:8" ht="25.2" customHeight="1">
+      <c r="B51" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="132" t="s">
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-    </row>
-    <row r="51" spans="2:8" ht="25.2" customHeight="1">
-      <c r="B51" s="131" t="s">
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+    </row>
+    <row r="52" spans="2:8" ht="25.2" customHeight="1">
+      <c r="B52" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="132" t="s">
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="132"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-    </row>
-    <row r="52" spans="2:8" ht="25.2" customHeight="1">
-      <c r="B52" s="131" t="s">
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+    </row>
+    <row r="53" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B53" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="132" t="s">
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="95"/>
+    </row>
+    <row r="54" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B54" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-    </row>
-    <row r="53" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="94" t="s">
+      <c r="C54" s="104"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="96"/>
-    </row>
-    <row r="54" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="133" t="s">
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="105"/>
+    </row>
+    <row r="55" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="111"/>
+    </row>
+    <row r="56" spans="2:8" ht="17.100000000000001" customHeight="1">
+      <c r="B56" s="112"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="102"/>
+    </row>
+    <row r="57" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B57" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="134"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="133" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" s="134"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="135"/>
-    </row>
-    <row r="55" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="136"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="139"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="141"/>
-    </row>
-    <row r="56" spans="2:8" ht="17.100000000000001" customHeight="1">
-      <c r="B56" s="142"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="144"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="145"/>
-      <c r="G56" s="145"/>
-      <c r="H56" s="100"/>
-    </row>
-    <row r="57" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="96"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="95"/>
     </row>
     <row r="58" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="146"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="148"/>
+        <v>107</v>
+      </c>
+      <c r="C58" s="96"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="97"/>
+      <c r="H58" s="98"/>
     </row>
     <row r="59" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="146"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="147"/>
-      <c r="G59" s="147"/>
-      <c r="H59" s="148"/>
+        <v>108</v>
+      </c>
+      <c r="C59" s="96"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="98"/>
     </row>
     <row r="60" spans="2:8" ht="17.100000000000001" customHeight="1">
       <c r="B60" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="149"/>
-      <c r="D60" s="149"/>
+        <v>109</v>
+      </c>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
       <c r="E60" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F60" s="116"/>
-      <c r="G60" s="145"/>
-      <c r="H60" s="100"/>
+        <v>110</v>
+      </c>
+      <c r="F60" s="100"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="102"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="61">
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="B10:H10"/>
@@ -10424,25 +10400,44 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="B11:H15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:H60"/>
   </mergeCells>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -10454,8 +10449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.59765625" defaultRowHeight="15.6"/>
@@ -10499,10 +10494,10 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
@@ -10510,10 +10505,10 @@
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
       <c r="O1" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
@@ -10521,10 +10516,10 @@
       <c r="T1" s="16"/>
       <c r="U1" s="16"/>
       <c r="V1" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W1" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
@@ -10532,15 +10527,15 @@
       <c r="AA1" s="16"/>
       <c r="AB1" s="16"/>
       <c r="AC1" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AD1" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="30" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="18">
         <v>44752</v>
@@ -10632,164 +10627,164 @@
     </row>
     <row r="3" spans="1:30" ht="89.25" customHeight="1">
       <c r="A3" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="D3" s="150"/>
+      <c r="E3" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="F3" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151" t="s">
+      <c r="G3" s="150"/>
+      <c r="H3" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="151" t="s">
+      <c r="I3" s="149"/>
+      <c r="J3" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="151"/>
-      <c r="H3" s="20" t="s">
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="152"/>
-      <c r="J3" s="151" t="s">
+      <c r="P3" s="149"/>
+      <c r="Q3" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="20" t="s">
+      <c r="R3" s="150"/>
+      <c r="S3" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="151" t="s">
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151" t="s">
+      <c r="W3" s="149"/>
+      <c r="X3" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="20" t="s">
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150" t="s">
         <v>126</v>
       </c>
-      <c r="W3" s="152"/>
-      <c r="X3" s="151" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="151" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="151"/>
-      <c r="AC3" s="160" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD3" s="152"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="151" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD3" s="149"/>
     </row>
     <row r="4" spans="1:30" ht="89.25" customHeight="1">
       <c r="A4" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="H4" s="23"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
       <c r="O4" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="152"/>
+        <v>168</v>
+      </c>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="149"/>
+      <c r="W4" s="149"/>
       <c r="X4" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y4" s="151" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="152"/>
+        <v>125</v>
+      </c>
+      <c r="Y4" s="150" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z4" s="150"/>
+      <c r="AA4" s="150"/>
+      <c r="AB4" s="150"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="149"/>
     </row>
     <row r="5" spans="1:30" ht="89.25" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="155" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="156"/>
       <c r="D5" s="157"/>
       <c r="E5" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F5" s="158" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G5" s="159"/>
       <c r="H5" s="23"/>
-      <c r="I5" s="152"/>
+      <c r="I5" s="149"/>
       <c r="J5" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K5" s="159"/>
       <c r="L5" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M5" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N5" s="159"/>
       <c r="O5" s="154"/>
-      <c r="P5" s="152"/>
+      <c r="P5" s="149"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="152"/>
-      <c r="Y5" s="152"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
+        <v>133</v>
+      </c>
+      <c r="S5" s="149"/>
+      <c r="T5" s="149"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="149"/>
+      <c r="Z5" s="149"/>
+      <c r="AA5" s="149"/>
+      <c r="AB5" s="149"/>
+      <c r="AC5" s="149"/>
+      <c r="AD5" s="149"/>
     </row>
     <row r="6" spans="1:30" ht="22.5" customHeight="1">
-      <c r="A6" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
+      <c r="A6" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -10842,6 +10837,16 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="24">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="AD3:AD5"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="Q3:R4"/>
@@ -10856,18 +10861,8 @@
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W3:W5"/>
     <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10893,53 +10888,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A1" s="161" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="162" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="162"/>
-      <c r="G1" s="164" t="s">
-        <v>51</v>
+      <c r="A1" s="160" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="161" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="161"/>
+      <c r="G1" s="163" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="163"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A3" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="164"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="163" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="C3" s="88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="11">
@@ -10948,12 +10943,12 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="163"/>
+      <c r="A4" s="162"/>
       <c r="B4" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -10961,12 +10956,12 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="163"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -10974,9 +10969,9 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="163"/>
+      <c r="A6" s="162"/>
       <c r="B6" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="8"/>
@@ -10985,9 +10980,9 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="163"/>
+      <c r="A7" s="162"/>
       <c r="B7" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
@@ -10996,9 +10991,9 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="163"/>
+      <c r="A8" s="162"/>
       <c r="B8" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
@@ -11007,9 +11002,9 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="163"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -11018,9 +11013,9 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="163"/>
+      <c r="A10" s="162"/>
       <c r="B10" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
@@ -11029,9 +11024,9 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="163"/>
+      <c r="A11" s="162"/>
       <c r="B11" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -11040,9 +11035,9 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="163"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
@@ -11051,9 +11046,9 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="163"/>
+      <c r="A13" s="162"/>
       <c r="B13" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -11062,9 +11057,9 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="163"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -11073,9 +11068,9 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="163"/>
+      <c r="A15" s="162"/>
       <c r="B15" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -11084,9 +11079,9 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="163"/>
+      <c r="A16" s="162"/>
       <c r="B16" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -11095,9 +11090,9 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="163"/>
+      <c r="A17" s="162"/>
       <c r="B17" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -11106,9 +11101,9 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="163"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -11117,9 +11112,9 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="163"/>
+      <c r="A19" s="162"/>
       <c r="B19" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
@@ -11135,7 +11130,7 @@
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -11143,6 +11138,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="19" master=""/>
+  <rangeList sheetStid="18" master=""/>
+  <rangeList sheetStid="14" master=""/>
+  <rangeList sheetStid="22" master=""/>
+  <rangeList sheetStid="21" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="19"/>
   <pixelatorList sheetStid="18"/>
@@ -11153,32 +11158,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="19" master=""/>
-  <rangeList sheetStid="18" master=""/>
-  <rangeList sheetStid="14" master=""/>
-  <rangeList sheetStid="22" master=""/>
-  <rangeList sheetStid="21" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <woSheetsProps>
-    <woSheetProps sheetStid="19" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="18" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="14" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="22" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-    <woSheetProps sheetStid="21" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
-  </woSheetsProps>
-  <woBookProps>
-    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0"/>
-  </woBookProps>
-</woProps>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="14">
     <comment s:ref="B29" rgbClr="FF0000">
@@ -11195,7 +11175,31 @@
 </comments>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="19" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="18" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="14" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="22" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="21" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -11204,17 +11208,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -11223,7 +11218,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
